--- a/SAV方法和其他方法的比较/投影方法的比较/结果比较.xlsx
+++ b/SAV方法和其他方法的比较/投影方法的比较/结果比较.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pengfei\Documents\GitHub\ibm_\SAV方法和其他方法的比较\投影方法的比较\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2A7222-18E8-42A5-A327-603A2D531B01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +24,155 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+  <si>
+    <t>||p||_2:  0.03922542650301394</t>
+  </si>
+  <si>
+    <t>||u||_2:  0.0030721061483062915</t>
+  </si>
+  <si>
+    <t>||p||_2:  0.009165417203685997</t>
+  </si>
+  <si>
+    <t>||u||_2:  0.00036975779007367176</t>
+  </si>
+  <si>
+    <t>||p||_2:  0.002246632125945269</t>
+  </si>
+  <si>
+    <t>||u||_2:  2.8534308699996885e-05</t>
+  </si>
+  <si>
+    <t>||p||_2:  0.000558479523877811</t>
+  </si>
+  <si>
+    <t>||u||_2:  0.568857117655593</t>
+  </si>
+  <si>
+    <t>||p||_2:  0.662855781452596</t>
+  </si>
+  <si>
+    <t>||u||_2:  0.5785840112433197</t>
+  </si>
+  <si>
+    <t>||p||_2:  0.41550478396898705</t>
+  </si>
+  <si>
+    <t>||u||_2:  0.5811630302345216</t>
+  </si>
+  <si>
+    <t>||p||_2:  0.4452798374231667</t>
+  </si>
+  <si>
+    <t>||u||_2:  0.5814895630265284</t>
+  </si>
+  <si>
+    <t>||p||_2:  0.4471663189551587</t>
+  </si>
+  <si>
+    <t>||u||_2:  0.00023530473411551814</t>
+  </si>
+  <si>
+    <t>||p||_2:  1.0541934414545642</t>
+  </si>
+  <si>
+    <t>||u||_2:  0.00011806896470985364</t>
+  </si>
+  <si>
+    <t>||p||_2:  0.2637015320210144</t>
+  </si>
+  <si>
+    <t>||u||_2:  5.437270502790574e-05</t>
+  </si>
+  <si>
+    <t>||p||_2:  0.0662202200255486</t>
+  </si>
+  <si>
+    <t>||u||_2:  4.743063033659666e-05</t>
+  </si>
+  <si>
+    <t>||p||_2:  0.017109251195292555</t>
+  </si>
+  <si>
+    <t>||u||_2:  1.7955239982604185</t>
+  </si>
+  <si>
+    <t>||p||_2:  5.829990955050985</t>
+  </si>
+  <si>
+    <t>||u||_2:  1.8951017146472395</t>
+  </si>
+  <si>
+    <t>||p||_2:  3.1526231674677474</t>
+  </si>
+  <si>
+    <t>||u||_2:  1.8388993685536257</t>
+  </si>
+  <si>
+    <t>||p||_2:  3.6302225572027025</t>
+  </si>
+  <si>
+    <t>||u||_2:  1.8360480242492923</t>
+  </si>
+  <si>
+    <t>||p||_2:  3.6292597455193194</t>
+  </si>
+  <si>
+    <t>||u||_2:  0.010614419112456629</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算例1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压强误差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度误差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4x4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8x8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16x16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +196,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +480,168 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.25" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
+    <col min="4" max="4" width="34.83203125" customWidth="1"/>
+    <col min="5" max="5" width="31.75" customWidth="1"/>
+    <col min="6" max="6" width="30.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>